--- a/Clark_Y.xlsx
+++ b/Clark_Y.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="5000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="205000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="405000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="605000" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="805000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="1005000" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="1205000" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="4000" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="204000" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="404000" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="604000" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="804000" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="1004000" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="1204000" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="1404000" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +61,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +400,4700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.4425</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.01003</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00461</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5414</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00431</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01042</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00427</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7372</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01081</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00441</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8324</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01141</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00474</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9226</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01256</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0113</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01399</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00653</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1031</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007979999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.1916</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01714</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.009690000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2666</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01876</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02127</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01383</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3514</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02561</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01803</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.3863</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03059</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.3916</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03907</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.3759</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0511</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04389</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3477</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06666</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05995</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.3202</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08382000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.07751</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3064</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09883</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.09281</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3029</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.11308</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10756</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.2883</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.13047</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12552</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.2487</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.15529</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.15104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3873</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00709</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5436</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00732</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00252</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6421</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00764</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00257</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7383999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00814</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00279</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8317</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00894</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00324</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9203</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01025</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0146</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01145</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00502</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1101</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01258</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00613</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2022</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2816</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00885</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01862</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01155</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3884</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02191</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01474</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4062</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02806</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02066</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4211</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03549</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02848</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4107</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04673</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04017</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3823</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06202</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05592</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.3604</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07826</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.07259</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3392</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09524000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08995</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3279</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.11016</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10507</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12511</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12041</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3044</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14368</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3819</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00637</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00183</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5271</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00632</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6433</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00668</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7393999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00723</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8313</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00817</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.009379999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00357</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01032</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1206</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01122</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00529</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2153</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01233</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2881</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01485</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008240000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3527</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01734</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01051</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3884</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02161</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4238</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0264</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01948</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4474</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03283</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02627</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4366</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04372</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03759</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.4304</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05596</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05025</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.4061</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07221</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06691999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3707</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09132999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08641</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3412</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.10958</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10497</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3267</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12696</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12273</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3146</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14421</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.14035</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.4948</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00573</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00172</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6448</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00184</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7411</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8313</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00783</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9278999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00878</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0286</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00957</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00401</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.1287</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.2211</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01174</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00584</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2948</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01428</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00783</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01649</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.4006</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02067</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4396</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02505</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4728</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03046</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02419</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4762</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03949</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03357</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05109</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04558</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.4518</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06092</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.4182</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08469</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.08001999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.10544</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.10116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3445</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.12593</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.12196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3247</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.14364</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.13993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3919</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00128</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4867</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00538</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6463</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00585</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7423999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00647</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00757</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00835</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0331</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00374</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1341</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00987</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2217</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01161</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.3008</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00751</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3614</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00993</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4136</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01975</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4621</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02332</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01695</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4894</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02896</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02289</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5175</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03538</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5235</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04493</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03948</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.4837</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06172</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05673</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.4536</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07494000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.4128</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.10029</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.09614</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3713</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12204</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.11828</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3406</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14267</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3929</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4916</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00529</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7432</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00631</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8345</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00734</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9344</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008030000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0374</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00865</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1378</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00421</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2231</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01144</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00561</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00725</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01649</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4244</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01903</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01261</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4741</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02242</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01621</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.5185</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02657</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0206</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5449</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03279</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02708</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5474</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04229</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03695</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.5449</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05387</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.04888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.5212</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.06979</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06521</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09014</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.08597</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.4217</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.11392</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.11017</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3707</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.13783</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3934</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00628</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00538</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00152</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7435</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00624</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00187</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8364</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9373</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00773</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00283</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0402</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.008359999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00337</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1403</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00925</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00406</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2242</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01132</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.3101</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01309</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3715</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01604</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00963</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4356</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01831</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01203</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02137</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01528</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.5372</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0251</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01919</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5635</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03112</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0255</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5855</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03836</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03303</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.5902</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04842</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0434</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.5646</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.06378</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05915</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.4913</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.08812</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.08401</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.4375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.11135</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.10766</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3875</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.13493</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-0.0035</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.05869</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.02758</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0635</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.06096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1279</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06414</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02975</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1885</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06829</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03307</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2448</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07349</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03783</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07979</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04398</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08716</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3895</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09548</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06009</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4321</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.10464</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4726</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.11455</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.08031000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5112</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.12514</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5482</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.13637</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.10372</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5841</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.14815</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6195000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.16047</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.12957</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.17321</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.14319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6913</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.18624</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.15704</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1996</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.17126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7649</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.21331</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.18579</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8018999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.22742</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.20075</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8388</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.24201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.21609</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8754999999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.25707</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.23189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.4426</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00458</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5414</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01012</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00429</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6399</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01039</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00425</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7372</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01078</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8324</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00473</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9226</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01254</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00544</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0112</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01398</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00651</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1031</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01553</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00796</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.1916</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01711</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00967</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01872</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02125</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01381</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3518</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02557</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.3871</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03052</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02307</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.3918</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03904</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05109</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04388</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3483</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06658</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05987</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.3202</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08382000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.07751</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3065</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09884999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.09284000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3032</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.11307</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10755</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.2892</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.13029</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12534</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.15448</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3871</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00708</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5436</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00731</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00252</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6421</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00764</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7383999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00814</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8317</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00894</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00324</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9204</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01025</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0147</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01144</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00501</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1101</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01257</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00613</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2023</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01374</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2816</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01557</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008840000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01861</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01154</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3884</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4063</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02805</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02065</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4213</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03547</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02847</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4105</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04675</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04019</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3828</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06196</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05587</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.3607</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07822</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.07256</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3394</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09523</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08993</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3283</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.11001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10492</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3208</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12521</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12052</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3043</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14374</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3819</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00637</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00183</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5268</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00632</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6433</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00207</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7393999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00723</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8313</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.008160000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.009379999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00357</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01031</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1207</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01122</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00528</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01233</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00629</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2881</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01485</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008240000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3527</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01734</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01051</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3884</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02161</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4239</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01947</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4475</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03282</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02626</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04368</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03755</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.4307</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05592</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05021</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.4064</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07217999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06688</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3707</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09132999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08641</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3413</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1096</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10499</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3267</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12698</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12275</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3147</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14422</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.14036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3895</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00647</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00147</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4948</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00573</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6448</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00184</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7411</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8313</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00783</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9278999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00878</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0286</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.009560000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00401</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1287</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00477</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2211</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01174</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00583</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2948</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01428</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00783</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01649</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00984</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4007</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02067</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4396</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02505</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03044</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02417</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4761</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03359</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.4703</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05105</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04554</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.4521</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06596</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06087</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.4185</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.08464000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07997</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3792</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.10541</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3446</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3247</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14366</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3919</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00128</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4867</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00537</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6462</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00585</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7423999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00646</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00756</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00835</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0331</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00907</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00374</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1341</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00987</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2217</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.3009</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00751</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.3613</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009939999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4137</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01975</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4622</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02331</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4896</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02894</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02287</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5177</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02958</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5237</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04491</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03946</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.4834</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06176</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05677</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07945000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07488</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.4131</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.09608999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3715</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.11825</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3407</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14266</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.3929</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4917</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00529</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6259</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7432</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00631</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8345</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00734</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9344</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008030000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0374</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00865</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1378</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00421</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2231</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01144</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00561</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00725</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01649</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4245</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01903</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4741</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02242</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01621</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.5186</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02059</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5449</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03279</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02707</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5477</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04227</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03693</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.5452</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05384</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.04885</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.5215</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.06975000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06517000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.4783</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09009</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.08592</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.4219</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.11388</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.11013</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3708</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.06446</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.02925</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06370000000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.06659</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02931</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1274</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06962</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0309</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1879</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0736</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03396</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2444</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08464000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04432</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09171</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09977</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4329</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.10868</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06936</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.11834</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07973</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5124</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.12868</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09086</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5498</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.13962</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.10275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5861</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.15111</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.11522</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6219</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.16305</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1281</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6577</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.17536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.14139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6938</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.18797</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.15491</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7302999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.20086</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.16876</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.21418</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.18304</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8037</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.22793</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.19767</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8403</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.24211</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.21274</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8768</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.25671</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>